--- a/bin/com/data/Test Cases.xlsx
+++ b/bin/com/data/Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9398" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9421" uniqueCount="410">
   <si>
     <t>TCID</t>
   </si>
@@ -1554,9 +1554,6 @@
     <t>Pay By eCredit card Initial</t>
   </si>
   <si>
-    <t>Antenna ::  ::  :: paa ::  :: fifth :: m ::  ::  ::  ::  :: due</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Antenna </t>
     </r>
@@ -1588,9 +1585,6 @@
     <t>PayInitialByCreditCardTest</t>
   </si>
   <si>
-    <t xml:space="preserve">Antenna ::  ::  :: paa ::  :: fifth :: m ::  ::  ::  ::  :: due :: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Antenna ::  :: i ::  ::  :: fifth ::  ::  ::  ::  ::  :: due :: </t>
   </si>
   <si>
@@ -1598,9 +1592,6 @@
   </si>
   <si>
     <t>PaySubsByCreditCardTest</t>
-  </si>
-  <si>
-    <t>Antenna ::  ::  :: subs ::  :: fifth ::  ::  ::  ::  ::  :: due</t>
   </si>
   <si>
     <t>Curb Cut ::  ::  :: subsequent :: approved :: fifth avenue ::  ::  :: rome18 ::  ::  :: exempted</t>
@@ -1716,12 +1707,6 @@
     <t>Curb Cut ::  ::  ::  :: pending plan :: 887 ::  ::  :: rome18 ::  ::  :: exempted</t>
   </si>
   <si>
-    <t>cpe_acpe</t>
-  </si>
-  <si>
-    <t>BUILD007 :: CPE/ACPE Team 1 :: Yes :: BUILD001 Chief Plan Examiner :: BUILD005 Plan Examiner</t>
-  </si>
-  <si>
     <t>AnProfCert</t>
   </si>
   <si>
@@ -1764,28 +1749,16 @@
     <t>CcStandard</t>
   </si>
   <si>
-    <t>primary_pe</t>
-  </si>
-  <si>
-    <t>secondary_pe</t>
-  </si>
-  <si>
-    <t>BUILD027 :: No :: Approved :: Yes</t>
-  </si>
-  <si>
-    <t>BUILD001 :: Yes :: BUILD005 Plan Examiner :: BUILD027 Plan Examiner :: Approve</t>
-  </si>
-  <si>
-    <t>BUILD017 :: BUILD023 QA</t>
-  </si>
-  <si>
-    <t>BUILD023 :: Permit Issued</t>
-  </si>
-  <si>
     <t>Antenna ::  ::  :: subsequent :: approved :: 888 ::  ::  :: rome18 ::  ::  :: exempted</t>
   </si>
   <si>
     <t>AnQaFailed</t>
+  </si>
+  <si>
+    <t>Antenna ::  ::  :: paa ::  ::  ::  ::  ::  ::  ::  :: due</t>
+  </si>
+  <si>
+    <t>PaySubsByCheckTestdsafcdzsafcdsafc</t>
   </si>
 </sst>
 </file>
@@ -3139,7 +3112,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -3163,7 +3136,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="63" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>3</v>
@@ -3171,7 +3144,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="43" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>3</v>
@@ -3179,7 +3152,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="63" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>3</v>
@@ -3212,7 +3185,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="63" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>3</v>
@@ -3220,7 +3193,7 @@
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1">
       <c r="A9" s="63" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B9" s="56"/>
       <c r="C9" s="58" t="s">
@@ -3229,7 +3202,7 @@
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1">
       <c r="A10" s="43" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B10" s="56"/>
       <c r="C10" s="58" t="s">
@@ -3274,7 +3247,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="63" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>3</v>
@@ -3282,7 +3255,7 @@
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1">
       <c r="A16" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B16" s="61"/>
       <c r="C16" s="58" t="s">
@@ -3299,7 +3272,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="55" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C18" s="59" t="s">
         <v>3</v>
@@ -3313,7 +3286,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>3</v>
@@ -3321,7 +3294,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>3</v>
@@ -3354,7 +3327,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>3</v>
@@ -3362,7 +3335,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C26" s="58" t="s">
         <v>3</v>
@@ -3370,7 +3343,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C27" s="58" t="s">
         <v>3</v>
@@ -3428,7 +3401,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C34" s="58" t="s">
         <v>3</v>
@@ -3436,7 +3409,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="63" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C35" s="58" t="s">
         <v>3</v>
@@ -3444,7 +3417,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="63" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C36" s="58" t="s">
         <v>3</v>
@@ -3476,7 +3449,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="63" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C40" s="58" t="s">
         <v>3</v>
@@ -3484,7 +3457,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="63" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C41" s="58" t="s">
         <v>3</v>
@@ -3492,7 +3465,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C42" s="58" t="s">
         <v>3</v>
@@ -3538,7 +3511,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="63" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C50" s="58" t="s">
         <v>3</v>
@@ -3554,9 +3527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EH243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A57" sqref="A57:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="CS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DA112" sqref="DA112:DA113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -3564,7 +3537,7 @@
     <col min="1" max="1" width="33.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="13" customWidth="1"/>
     <col min="5" max="5" width="34.140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
@@ -4109,7 +4082,7 @@
     </row>
     <row r="5" spans="1:138" s="9" customFormat="1">
       <c r="A5" s="63" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B5" s="8"/>
       <c r="E5" s="8"/>
@@ -4187,7 +4160,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>57</v>
+        <v>325</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>36</v>
@@ -4232,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S6" s="15" t="s">
         <v>58</v>
@@ -4382,7 +4355,7 @@
         <v>51</v>
       </c>
       <c r="BP6" s="6" t="s">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="BQ6" s="15" t="s">
         <v>226</v>
@@ -4397,10 +4370,10 @@
         <v>120</v>
       </c>
       <c r="BU6" s="16" t="s">
-        <v>411</v>
+        <v>99</v>
       </c>
       <c r="BV6" s="16" t="s">
-        <v>412</v>
+        <v>99</v>
       </c>
       <c r="BW6" s="16" t="s">
         <v>121</v>
@@ -4499,81 +4472,81 @@
         <v>157</v>
       </c>
       <c r="DC6" s="15" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="DD6" s="16" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="DE6" s="15" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="DF6" s="15" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="DG6" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="DH6" s="6" t="s">
-        <v>163</v>
+        <v>237</v>
+      </c>
+      <c r="DH6" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="DI6" s="15" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="DJ6" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="DK6" s="6" t="s">
-        <v>166</v>
+        <v>239</v>
+      </c>
+      <c r="DK6" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="DL6" s="6" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="DM6" s="6" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="DN6" s="6" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="DO6" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="DP6" s="15" t="s">
-        <v>170</v>
+        <v>288</v>
+      </c>
+      <c r="DP6" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="DQ6" s="15" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="DR6" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS6" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="DT6" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="DU6" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="DV6" s="15" t="s">
-        <v>219</v>
+        <v>244</v>
+      </c>
+      <c r="DS6" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="DT6" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU6" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="DV6" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="DW6" s="6" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="DX6" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:138" s="5" customFormat="1" ht="51">
+    <row r="7" spans="1:138" s="5" customFormat="1" ht="63.75">
       <c r="A7" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>16</v>
+        <v>284</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>387</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>54</v>
@@ -4591,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>323</v>
@@ -4603,19 +4576,19 @@
         <v>14</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X7" s="14" t="s">
         <v>317</v>
@@ -4631,7 +4604,7 @@
       </c>
       <c r="AB7" s="14"/>
       <c r="AC7" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD7" s="14" t="s">
         <v>3</v>
@@ -4666,21 +4639,19 @@
       <c r="AN7" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AO7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ7" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="AO7" s="14"/>
       <c r="AR7" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
+      <c r="AS7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU7" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="AV7" s="5" t="s">
         <v>71</v>
       </c>
@@ -4737,22 +4708,24 @@
       <c r="BO7" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="BP7" s="4" t="s">
-        <v>396</v>
+      <c r="BP7" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="BR7" s="4"/>
       <c r="BS7" s="4" t="s">
-        <v>414</v>
+        <v>319</v>
       </c>
       <c r="BT7" s="4"/>
       <c r="BU7" s="4" t="s">
         <v>321</v>
       </c>
       <c r="BV7" s="4" t="s">
-        <v>413</v>
+        <v>321</v>
       </c>
       <c r="BW7" s="4"/>
-      <c r="BX7" s="14"/>
+      <c r="BX7" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="BY7" s="4"/>
       <c r="CA7" s="4"/>
       <c r="CB7" s="5" t="s">
@@ -4766,8 +4739,8 @@
         <v>93</v>
       </c>
       <c r="CF7" s="4"/>
-      <c r="CG7" s="5" t="s">
-        <v>401</v>
+      <c r="CG7" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="CH7" s="14" t="s">
         <v>118</v>
@@ -4797,7 +4770,7 @@
         <v>109</v>
       </c>
       <c r="CQ7" s="4" t="s">
-        <v>415</v>
+        <v>328</v>
       </c>
       <c r="CR7" s="4" t="s">
         <v>3</v>
@@ -4812,7 +4785,7 @@
         <v>109</v>
       </c>
       <c r="CV7" s="4" t="s">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="CW7" s="4" t="s">
         <v>3</v>
@@ -4824,78 +4797,72 @@
       <c r="CZ7" s="23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:138" s="5" customFormat="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="6"/>
-      <c r="AM8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="14"/>
-      <c r="BF8" s="14"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
-      <c r="BK8" s="14"/>
-      <c r="BL8" s="14"/>
-      <c r="BM8" s="14"/>
-      <c r="BN8" s="14"/>
-      <c r="BO8" s="14"/>
-      <c r="BP8" s="14"/>
-      <c r="BR8" s="4"/>
-      <c r="BS8" s="4"/>
-      <c r="BT8" s="4"/>
-      <c r="BU8" s="4"/>
-      <c r="BV8" s="4"/>
-      <c r="BW8" s="4"/>
-      <c r="BX8" s="14"/>
-      <c r="BY8" s="4"/>
-      <c r="CA8" s="4"/>
-      <c r="CC8" s="14"/>
-      <c r="CD8" s="4"/>
-      <c r="CE8" s="4"/>
-      <c r="CF8" s="4"/>
-      <c r="CG8" s="23"/>
-      <c r="CH8" s="14"/>
-      <c r="CJ8" s="23"/>
-      <c r="CK8" s="14"/>
-      <c r="CL8" s="14"/>
-      <c r="CM8" s="14"/>
-      <c r="CP8" s="4"/>
-      <c r="CQ8" s="4"/>
-      <c r="CR8" s="4"/>
-      <c r="CS8" s="4"/>
-      <c r="CT8" s="4"/>
-      <c r="CU8" s="4"/>
-      <c r="CV8" s="4"/>
-      <c r="CW8" s="4"/>
-      <c r="CX8" s="4"/>
-      <c r="CY8" s="4"/>
-      <c r="CZ8" s="23"/>
+      <c r="DA7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="DC7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DE7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DG7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DH7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DI7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ7" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="DK7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="DL7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="DM7" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="DN7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DQ7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DR7" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="DS7" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="DT7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DU7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="DV7" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="DW7" s="5" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="9" spans="1:138">
       <c r="A9" s="52"/>
@@ -5305,7 +5272,7 @@
         <v>17</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S14" s="15" t="s">
         <v>58</v>
@@ -5677,7 +5644,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>52</v>
@@ -5692,7 +5659,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>323</v>
@@ -5704,19 +5671,19 @@
         <v>14</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V15" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X15" s="14" t="s">
         <v>317</v>
@@ -5732,7 +5699,7 @@
       </c>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD15" s="14" t="s">
         <v>3</v>
@@ -5921,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="ED15" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="EE15" s="4" t="s">
         <v>326</v>
@@ -5935,7 +5902,7 @@
     </row>
     <row r="17" spans="1:128" s="9" customFormat="1">
       <c r="A17" s="43" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B17" s="8"/>
       <c r="E17" s="8"/>
@@ -6058,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S18" s="15" t="s">
         <v>58</v>
@@ -6396,13 +6363,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>52</v>
@@ -6417,7 +6384,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>323</v>
@@ -6429,19 +6396,19 @@
         <v>14</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X19" s="14" t="s">
         <v>317</v>
@@ -6457,7 +6424,7 @@
       </c>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD19" s="14" t="s">
         <v>3</v>
@@ -6704,7 +6671,7 @@
     </row>
     <row r="21" spans="1:128" s="9" customFormat="1">
       <c r="A21" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B21" s="8"/>
       <c r="E21" s="8"/>
@@ -6827,7 +6794,7 @@
         <v>17</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S22" s="15" t="s">
         <v>58</v>
@@ -7186,7 +7153,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O23" s="5" t="s">
         <v>323</v>
@@ -7198,19 +7165,19 @@
         <v>14</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V23" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X23" s="14" t="s">
         <v>317</v>
@@ -7226,7 +7193,7 @@
       </c>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD23" s="14" t="s">
         <v>3</v>
@@ -7525,7 +7492,7 @@
         <v>17</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S26" s="15" t="s">
         <v>58</v>
@@ -7836,7 +7803,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>323</v>
@@ -7848,19 +7815,19 @@
         <v>14</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V27" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X27" s="14" t="s">
         <v>317</v>
@@ -7876,7 +7843,7 @@
       </c>
       <c r="AB27" s="14"/>
       <c r="AC27" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD27" s="14" t="s">
         <v>3</v>
@@ -8173,7 +8140,7 @@
         <v>17</v>
       </c>
       <c r="R30" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S30" s="15" t="s">
         <v>58</v>
@@ -8254,7 +8221,7 @@
         <v>63</v>
       </c>
       <c r="AS30" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AT30" s="6" t="s">
         <v>65</v>
@@ -8517,7 +8484,7 @@
         <v>16</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>52</v>
@@ -8532,7 +8499,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>323</v>
@@ -8544,19 +8511,19 @@
         <v>14</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V31" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X31" s="14" t="s">
         <v>317</v>
@@ -8572,7 +8539,7 @@
       </c>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD31" s="14" t="s">
         <v>3</v>
@@ -8937,7 +8904,7 @@
         <v>17</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S34" s="15" t="s">
         <v>58</v>
@@ -9281,7 +9248,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>52</v>
@@ -9296,7 +9263,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>323</v>
@@ -9308,7 +9275,7 @@
         <v>14</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S35" s="5" t="s">
         <v>124</v>
@@ -9317,13 +9284,13 @@
         <v>3</v>
       </c>
       <c r="U35" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V35" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X35" s="14" t="s">
         <v>317</v>
@@ -9341,7 +9308,7 @@
         <v>59</v>
       </c>
       <c r="AC35" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD35" s="14" t="s">
         <v>3</v>
@@ -9707,7 +9674,7 @@
         <v>17</v>
       </c>
       <c r="R38" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S38" s="15" t="s">
         <v>58</v>
@@ -10051,7 +10018,7 @@
         <v>16</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>52</v>
@@ -10066,7 +10033,7 @@
         <v>3</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>323</v>
@@ -10078,19 +10045,19 @@
         <v>14</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U39" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V39" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X39" s="14" t="s">
         <v>317</v>
@@ -10106,7 +10073,7 @@
       </c>
       <c r="AB39" s="14"/>
       <c r="AC39" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD39" s="14" t="s">
         <v>3</v>
@@ -10464,7 +10431,7 @@
         <v>17</v>
       </c>
       <c r="R42" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S42" s="15" t="s">
         <v>58</v>
@@ -10820,7 +10787,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>52</v>
@@ -10835,7 +10802,7 @@
         <v>3</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O43" s="5" t="s">
         <v>323</v>
@@ -10847,19 +10814,19 @@
         <v>14</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V43" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X43" s="14" t="s">
         <v>317</v>
@@ -10875,7 +10842,7 @@
       </c>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD43" s="14" t="s">
         <v>3</v>
@@ -11062,7 +11029,7 @@
     </row>
     <row r="45" spans="1:132" s="9" customFormat="1">
       <c r="A45" s="43" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B45" s="8"/>
       <c r="E45" s="8"/>
@@ -11185,7 +11152,7 @@
         <v>17</v>
       </c>
       <c r="R46" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S46" s="15" t="s">
         <v>58</v>
@@ -11556,19 +11523,19 @@
         <v>14</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U47" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V47" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X47" s="14" t="s">
         <v>317</v>
@@ -11584,7 +11551,7 @@
       </c>
       <c r="AB47" s="14"/>
       <c r="AC47" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD47" s="14" t="s">
         <v>3</v>
@@ -11759,7 +11726,7 @@
     </row>
     <row r="49" spans="1:128" s="9" customFormat="1">
       <c r="A49" s="63" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B49" s="8"/>
       <c r="E49" s="8"/>
@@ -11882,7 +11849,7 @@
         <v>17</v>
       </c>
       <c r="R50" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S50" s="15" t="s">
         <v>58</v>
@@ -12220,7 +12187,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>302</v>
@@ -12253,7 +12220,7 @@
         <v>14</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S51" s="5" t="s">
         <v>124</v>
@@ -12262,13 +12229,13 @@
         <v>3</v>
       </c>
       <c r="U51" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V51" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X51" s="14" t="s">
         <v>317</v>
@@ -12284,7 +12251,7 @@
       </c>
       <c r="AB51" s="14"/>
       <c r="AC51" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD51" s="14" t="s">
         <v>3</v>
@@ -12352,7 +12319,7 @@
         <v>314</v>
       </c>
       <c r="BG51" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="BH51" s="14" t="s">
         <v>314</v>
@@ -12494,7 +12461,7 @@
     </row>
     <row r="53" spans="1:128" s="9" customFormat="1">
       <c r="A53" s="63" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B53" s="8"/>
       <c r="E53" s="8"/>
@@ -12617,7 +12584,7 @@
         <v>17</v>
       </c>
       <c r="R54" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S54" s="15" t="s">
         <v>58</v>
@@ -12955,7 +12922,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>16</v>
@@ -12976,7 +12943,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O55" s="5" t="s">
         <v>323</v>
@@ -12988,19 +12955,19 @@
         <v>14</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T55" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U55" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V55" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X55" s="14" t="s">
         <v>317</v>
@@ -13016,7 +12983,7 @@
       </c>
       <c r="AB55" s="14"/>
       <c r="AC55" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD55" s="14" t="s">
         <v>3</v>
@@ -13257,7 +13224,7 @@
     </row>
     <row r="57" spans="1:128" s="9" customFormat="1">
       <c r="A57" s="43" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B57" s="8"/>
       <c r="E57" s="8"/>
@@ -13380,7 +13347,7 @@
         <v>17</v>
       </c>
       <c r="R58" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S58" s="15" t="s">
         <v>58</v>
@@ -13718,7 +13685,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>302</v>
@@ -13751,19 +13718,19 @@
         <v>14</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T59" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U59" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V59" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X59" s="14" t="s">
         <v>317</v>
@@ -13779,7 +13746,7 @@
       </c>
       <c r="AB59" s="14"/>
       <c r="AC59" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD59" s="14" t="s">
         <v>3</v>
@@ -13955,7 +13922,7 @@
     </row>
     <row r="61" spans="1:128" s="9" customFormat="1">
       <c r="A61" s="63" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B61" s="8"/>
       <c r="E61" s="8"/>
@@ -14078,7 +14045,7 @@
         <v>17</v>
       </c>
       <c r="R62" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S62" s="15" t="s">
         <v>58</v>
@@ -14416,7 +14383,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>302</v>
@@ -14449,19 +14416,19 @@
         <v>14</v>
       </c>
       <c r="R63" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T63" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U63" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V63" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X63" s="14" t="s">
         <v>317</v>
@@ -14477,7 +14444,7 @@
       </c>
       <c r="AB63" s="14"/>
       <c r="AC63" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD63" s="14" t="s">
         <v>3</v>
@@ -14545,7 +14512,7 @@
         <v>314</v>
       </c>
       <c r="BG63" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="BH63" s="14" t="s">
         <v>314</v>
@@ -14621,7 +14588,7 @@
     </row>
     <row r="65" spans="1:128" s="9" customFormat="1">
       <c r="A65" s="43" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B65" s="8"/>
       <c r="E65" s="8"/>
@@ -14744,7 +14711,7 @@
         <v>17</v>
       </c>
       <c r="R66" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S66" s="15" t="s">
         <v>58</v>
@@ -15103,7 +15070,7 @@
         <v>3</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O67" s="5" t="s">
         <v>323</v>
@@ -15115,19 +15082,19 @@
         <v>14</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T67" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U67" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X67" s="14" t="s">
         <v>317</v>
@@ -15143,7 +15110,7 @@
       </c>
       <c r="AB67" s="14"/>
       <c r="AC67" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD67" s="14" t="s">
         <v>3</v>
@@ -15411,7 +15378,7 @@
     </row>
     <row r="69" spans="1:128" s="9" customFormat="1">
       <c r="A69" s="63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B69" s="8"/>
       <c r="E69" s="8"/>
@@ -15875,7 +15842,7 @@
         <v>272</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>274</v>
@@ -15970,7 +15937,7 @@
     </row>
     <row r="73" spans="1:128" s="9" customFormat="1">
       <c r="A73" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B73" s="8"/>
       <c r="E73" s="8"/>
@@ -16434,7 +16401,7 @@
         <v>362</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>273</v>
@@ -16532,7 +16499,7 @@
     </row>
     <row r="77" spans="1:128" s="9" customFormat="1">
       <c r="A77" s="63" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B77" s="8"/>
       <c r="E77" s="8"/>
@@ -16988,7 +16955,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:128" s="5" customFormat="1" ht="51">
+    <row r="79" spans="1:128" s="5" customFormat="1" ht="38.25">
       <c r="A79" s="33" t="s">
         <v>3</v>
       </c>
@@ -16996,7 +16963,7 @@
         <v>361</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>274</v>
@@ -17091,7 +17058,7 @@
     </row>
     <row r="81" spans="1:128" s="9" customFormat="1">
       <c r="A81" s="63" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B81" s="8"/>
       <c r="E81" s="8"/>
@@ -17547,7 +17514,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="83" spans="1:128" s="5" customFormat="1" ht="51">
+    <row r="83" spans="1:128" s="5" customFormat="1" ht="38.25">
       <c r="A83" s="33" t="s">
         <v>3</v>
       </c>
@@ -17555,7 +17522,7 @@
         <v>360</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>273</v>
@@ -17565,7 +17532,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="W83" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X83" s="14"/>
       <c r="Z83" s="14"/>
@@ -17656,7 +17623,7 @@
     </row>
     <row r="85" spans="1:128" s="9" customFormat="1">
       <c r="A85" s="63" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B85" s="8"/>
       <c r="E85" s="8"/>
@@ -17734,10 +17701,10 @@
         <v>6</v>
       </c>
       <c r="C86" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>7</v>
@@ -17779,7 +17746,7 @@
         <v>17</v>
       </c>
       <c r="R86" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S86" s="15" t="s">
         <v>58</v>
@@ -18119,11 +18086,11 @@
       <c r="B87" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="C87" s="25" t="s">
-        <v>371</v>
+      <c r="C87" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>54</v>
+        <v>387</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>52</v>
@@ -18138,7 +18105,7 @@
         <v>3</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O87" s="5" t="s">
         <v>323</v>
@@ -18150,19 +18117,19 @@
         <v>14</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T87" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U87" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W87" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X87" s="14" t="s">
         <v>317</v>
@@ -18178,7 +18145,7 @@
       </c>
       <c r="AB87" s="14"/>
       <c r="AC87" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD87" s="14" t="s">
         <v>3</v>
@@ -18440,7 +18407,7 @@
     </row>
     <row r="89" spans="1:128" s="9" customFormat="1">
       <c r="A89" s="63" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B89" s="8"/>
       <c r="E89" s="8"/>
@@ -18518,10 +18485,10 @@
         <v>6</v>
       </c>
       <c r="C90" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>7</v>
@@ -18563,7 +18530,7 @@
         <v>17</v>
       </c>
       <c r="R90" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S90" s="15" t="s">
         <v>58</v>
@@ -18903,11 +18870,11 @@
       <c r="B91" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="C91" s="25" t="s">
-        <v>371</v>
+      <c r="C91" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>54</v>
+        <v>387</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>52</v>
@@ -18922,7 +18889,7 @@
         <v>3</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O91" s="5" t="s">
         <v>323</v>
@@ -18934,19 +18901,19 @@
         <v>14</v>
       </c>
       <c r="R91" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T91" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V91" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W91" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="X91" s="14" t="s">
         <v>317</v>
@@ -18962,7 +18929,7 @@
       </c>
       <c r="AB91" s="14"/>
       <c r="AC91" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD91" s="14" t="s">
         <v>3</v>
@@ -19555,7 +19522,7 @@
         <v>17</v>
       </c>
       <c r="R96" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S96" s="15" t="s">
         <v>58</v>
@@ -19828,7 +19795,7 @@
         <v>16</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E97" s="41" t="s">
         <v>53</v>
@@ -19843,7 +19810,7 @@
         <v>3</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>117</v>
@@ -19861,13 +19828,13 @@
         <v>5</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>124</v>
       </c>
       <c r="U97" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="V97" s="5" t="s">
         <v>318</v>
@@ -19889,7 +19856,7 @@
         <v>59</v>
       </c>
       <c r="AC97" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD97" s="14" t="s">
         <v>3</v>
@@ -20144,7 +20111,7 @@
         <v>17</v>
       </c>
       <c r="R100" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S100" s="15" t="s">
         <v>58</v>
@@ -20503,10 +20470,10 @@
         <v>3</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S101" s="5" t="s">
         <v>124</v>
@@ -20531,7 +20498,7 @@
         <v>59</v>
       </c>
       <c r="AC101" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD101" s="14" t="s">
         <v>3</v>
@@ -20799,7 +20766,7 @@
         <v>17</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S104" s="15" t="s">
         <v>58</v>
@@ -21108,10 +21075,10 @@
         <v>3</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S105" s="5" t="s">
         <v>124</v>
@@ -21136,7 +21103,7 @@
         <v>59</v>
       </c>
       <c r="AC105" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD105" s="14" t="s">
         <v>3</v>
@@ -21405,7 +21372,7 @@
         <v>17</v>
       </c>
       <c r="R108" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S108" s="15" t="s">
         <v>58</v>
@@ -21764,7 +21731,7 @@
         <v>3</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O109" s="5" t="s">
         <v>323</v>
@@ -21776,7 +21743,7 @@
         <v>14</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S109" s="5" t="s">
         <v>124</v>
@@ -21785,7 +21752,7 @@
         <v>3</v>
       </c>
       <c r="U109" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="V109" s="5" t="s">
         <v>318</v>
@@ -21809,7 +21776,7 @@
         <v>59</v>
       </c>
       <c r="AC109" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD109" s="14" t="s">
         <v>3</v>
@@ -21993,8 +21960,8 @@
       <c r="CZ109" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="DA109" s="4" t="s">
-        <v>3</v>
+      <c r="DA109" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="DB109" s="24" t="s">
         <v>53</v>
@@ -22185,7 +22152,7 @@
         <v>17</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S112" s="15" t="s">
         <v>58</v>
@@ -22544,7 +22511,7 @@
         <v>3</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O113" s="5" t="s">
         <v>323</v>
@@ -22556,7 +22523,7 @@
         <v>14</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S113" s="5" t="s">
         <v>124</v>
@@ -22565,7 +22532,7 @@
         <v>3</v>
       </c>
       <c r="U113" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="V113" s="5" t="s">
         <v>318</v>
@@ -22589,7 +22556,7 @@
         <v>59</v>
       </c>
       <c r="AC113" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD113" s="14" t="s">
         <v>3</v>
@@ -22773,8 +22740,8 @@
       <c r="CZ113" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="DA113" s="4" t="s">
-        <v>3</v>
+      <c r="DA113" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="DB113" s="24" t="s">
         <v>53</v>
@@ -22965,7 +22932,7 @@
         <v>17</v>
       </c>
       <c r="R116" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S116" s="15" t="s">
         <v>58</v>
@@ -23324,7 +23291,7 @@
         <v>3</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O117" s="5" t="s">
         <v>323</v>
@@ -23336,7 +23303,7 @@
         <v>14</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>124</v>
@@ -23345,7 +23312,7 @@
         <v>3</v>
       </c>
       <c r="U117" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="V117" s="5" t="s">
         <v>318</v>
@@ -23369,7 +23336,7 @@
         <v>59</v>
       </c>
       <c r="AC117" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD117" s="14" t="s">
         <v>3</v>
@@ -23745,7 +23712,7 @@
         <v>17</v>
       </c>
       <c r="R120" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S120" s="15" t="s">
         <v>58</v>
@@ -24089,7 +24056,7 @@
         <v>16</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E121" s="41" t="s">
         <v>53</v>
@@ -24104,7 +24071,7 @@
         <v>3</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J121" s="5" t="s">
         <v>117</v>
@@ -24122,7 +24089,7 @@
         <v>5</v>
       </c>
       <c r="R121" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S121" s="5" t="s">
         <v>124</v>
@@ -24147,7 +24114,7 @@
         <v>59</v>
       </c>
       <c r="AC121" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD121" s="14" t="s">
         <v>3</v>
@@ -24355,7 +24322,7 @@
     </row>
     <row r="123" spans="1:128" s="9" customFormat="1">
       <c r="A123" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B123" s="8"/>
       <c r="E123" s="8"/>
@@ -24478,7 +24445,7 @@
         <v>17</v>
       </c>
       <c r="R124" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S124" s="15" t="s">
         <v>58</v>
@@ -24837,10 +24804,10 @@
         <v>3</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R125" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S125" s="5" t="s">
         <v>124</v>
@@ -24865,7 +24832,7 @@
         <v>59</v>
       </c>
       <c r="AC125" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD125" s="14" t="s">
         <v>3</v>
@@ -25003,7 +24970,7 @@
     </row>
     <row r="127" spans="1:128" s="9" customFormat="1">
       <c r="A127" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B127" s="8"/>
       <c r="E127" s="8"/>
@@ -25126,7 +25093,7 @@
         <v>17</v>
       </c>
       <c r="R128" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S128" s="15" t="s">
         <v>58</v>
@@ -25485,10 +25452,10 @@
         <v>3</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R129" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S129" s="5" t="s">
         <v>124</v>
@@ -25513,7 +25480,7 @@
         <v>59</v>
       </c>
       <c r="AC129" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD129" s="14" t="s">
         <v>3</v>
@@ -25543,7 +25510,7 @@
       <c r="BE129" s="14"/>
       <c r="BF129" s="14"/>
       <c r="BG129" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="BH129" s="14" t="s">
         <v>314</v>
@@ -25630,7 +25597,7 @@
     </row>
     <row r="131" spans="1:128" s="9" customFormat="1">
       <c r="A131" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B131" s="8"/>
       <c r="E131" s="8"/>
@@ -25753,7 +25720,7 @@
         <v>17</v>
       </c>
       <c r="R132" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S132" s="15" t="s">
         <v>58</v>
@@ -26112,10 +26079,10 @@
         <v>3</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R133" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S133" s="5" t="s">
         <v>124</v>
@@ -26140,7 +26107,7 @@
         <v>59</v>
       </c>
       <c r="AC133" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD133" s="14" t="s">
         <v>3</v>
@@ -26276,7 +26243,7 @@
     </row>
     <row r="135" spans="1:128" s="9" customFormat="1">
       <c r="A135" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B135" s="8"/>
       <c r="E135" s="8"/>
@@ -26399,7 +26366,7 @@
         <v>17</v>
       </c>
       <c r="R136" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S136" s="15" t="s">
         <v>58</v>
@@ -26758,10 +26725,10 @@
         <v>3</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R137" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S137" s="5" t="s">
         <v>124</v>
@@ -26786,7 +26753,7 @@
         <v>59</v>
       </c>
       <c r="AC137" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD137" s="14" t="s">
         <v>3</v>
@@ -26816,7 +26783,7 @@
       <c r="BE137" s="14"/>
       <c r="BF137" s="14"/>
       <c r="BG137" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="BH137" s="14" t="s">
         <v>314</v>
@@ -26902,7 +26869,7 @@
     </row>
     <row r="139" spans="1:128" s="9" customFormat="1">
       <c r="A139" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B139" s="8"/>
       <c r="E139" s="8"/>
@@ -27025,7 +26992,7 @@
         <v>17</v>
       </c>
       <c r="R140" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S140" s="15" t="s">
         <v>58</v>
@@ -27384,10 +27351,10 @@
         <v>3</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R141" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S141" s="5" t="s">
         <v>124</v>
@@ -27412,7 +27379,7 @@
         <v>59</v>
       </c>
       <c r="AC141" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD141" s="14" t="s">
         <v>3</v>
@@ -27548,7 +27515,7 @@
     </row>
     <row r="143" spans="1:128" s="9" customFormat="1">
       <c r="A143" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B143" s="8"/>
       <c r="E143" s="8"/>
@@ -27671,7 +27638,7 @@
         <v>17</v>
       </c>
       <c r="R144" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S144" s="15" t="s">
         <v>58</v>
@@ -28033,7 +28000,7 @@
         <v>311</v>
       </c>
       <c r="R145" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S145" s="5" t="s">
         <v>124</v>
@@ -28058,7 +28025,7 @@
         <v>59</v>
       </c>
       <c r="AC145" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AD145" s="14" t="s">
         <v>3</v>
@@ -30950,7 +30917,7 @@
     </row>
     <row r="188" spans="1:128" s="9" customFormat="1">
       <c r="A188" s="43" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B188" s="8"/>
       <c r="E188" s="8"/>
@@ -33114,7 +33081,7 @@
     </row>
     <row r="201" spans="1:128" s="9" customFormat="1">
       <c r="A201" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B201" s="8"/>
       <c r="E201" s="8"/>
